--- a/Implementation/Python/experiment4EF1.xlsx
+++ b/Implementation/Python/experiment4EF1.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="L2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="N2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="R2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="V2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="X2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="Z2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.8</v>
       </c>
-      <c r="J2" t="n">
+      <c r="AB2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC2" t="n">
         <v>1.9</v>
       </c>
-      <c r="K2" t="n">
+      <c r="AD2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AE2" t="n">
         <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -670,49 +670,49 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.026</v>
+        <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -762,40 +762,40 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -854,28 +854,28 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005</v>
+        <v>0.5</v>
       </c>
       <c r="T5" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -946,34 +946,34 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,28 +1041,28 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1513,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>

--- a/Implementation/Python/experiment4EF1.xlsx
+++ b/Implementation/Python/experiment4EF1.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.55</v>
+        <v>0.0011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.0012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0.0013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0.0014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.0015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.0016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.85</v>
+        <v>0.0017</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9</v>
+        <v>0.0018</v>
       </c>
       <c r="J2" t="n">
-        <v>0.95</v>
+        <v>0.0019</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05</v>
+        <v>0.0021</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>0.0022</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15</v>
+        <v>0.0023</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>0.0024</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>0.0025</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>0.0026</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>0.0027</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0.0028</v>
       </c>
       <c r="T2" t="n">
-        <v>1.45</v>
+        <v>0.0029</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>0.003</v>
       </c>
       <c r="V2" t="n">
-        <v>1.55</v>
+        <v>0.0031</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>0.0032</v>
       </c>
       <c r="X2" t="n">
-        <v>1.65</v>
+        <v>0.0033</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.7</v>
+        <v>0.0034</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.75</v>
+        <v>0.0035</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.8</v>
+        <v>0.0036</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.85</v>
+        <v>0.0037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>0.0038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.95</v>
+        <v>0.0039</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="3">
@@ -670,52 +670,52 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0.029</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -762,40 +762,40 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -854,34 +854,34 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,28 +1041,28 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1899,16 +1899,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
